--- a/BangPhanChiaCongViecNhom.xlsx
+++ b/BangPhanChiaCongViecNhom.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Đặc tả UC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +18,137 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Thiên</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Dealine</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>Ngày bắt dầu</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Phân công</t>
+  </si>
+  <si>
+    <t>Đặc tả UC: Đăng nhập</t>
+  </si>
+  <si>
+    <t>Đặc tả UC:  Đăng xuất</t>
+  </si>
+  <si>
+    <t>Đặc tả UC: Thay đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Đặc tả UC: Quản lý bệnh nhân</t>
+  </si>
+  <si>
+    <t>Đặc tả UC: Quản lý nhân viên</t>
+  </si>
+  <si>
+    <t>Đặc tả UC: Quản lý thuốc</t>
+  </si>
+  <si>
+    <t>Đặc tả UC: Lập báo cáo doanh thu khám bệnh</t>
+  </si>
+  <si>
+    <t>Đặc tả UC: Lập báo cáo doanh thu bán thuốc</t>
+  </si>
+  <si>
+    <t>Đặc tả UC: Lập phiếu khám bệnh</t>
+  </si>
+  <si>
+    <t>Đặc tả UC: Lập hoá đơn tiền khám</t>
+  </si>
+  <si>
+    <t>Đặc tả UC: Lập toa thuốc</t>
+  </si>
+  <si>
+    <t>Đặc tả UC: Quản lý quy định và biểu giá</t>
+  </si>
+  <si>
+    <t>Đặc tả UC: Tra cứu</t>
+  </si>
+  <si>
+    <t>Tên công viêc</t>
+  </si>
+  <si>
+    <t>Cường</t>
+  </si>
+  <si>
+    <t>Trung</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>20/12/2017</t>
+  </si>
+  <si>
+    <t>17/12/2017</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình: Đăng nhập</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình:  Đăng xuất</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình: Thay đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình: Quản lý bệnh nhân</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình: Quản lý nhân viên</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình: Quản lý thuốc</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình: Lập báo cáo doanh thu khám bệnh</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình: Lập báo cáo doanh thu bán thuốc</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình: Lập phiếu khám bệnh</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình: Lập hoá đơn tiền khám</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình: Lập toa thuốc</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình: Quản lý quy định và biểu giá</t>
+  </si>
+  <si>
+    <t>Thiết kế màn hình: Tra cứu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +156,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -45,15 +202,220 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +692,607 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="43.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="15">
+        <v>43081</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="15">
+        <v>43081</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="15">
+        <v>43081</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="15">
+        <v>43081</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="15">
+        <v>43081</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="15">
+        <v>43081</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="15">
+        <v>43081</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="15">
+        <v>43081</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>43081</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="15">
+        <v>43081</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>43081</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="15">
+        <v>43081</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="15">
+        <v>43081</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="15">
+        <v>43081</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="15">
+        <v>43081</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="15">
+        <v>43081</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="15">
+        <v>43081</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="15">
+        <v>43081</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="15">
+        <v>43081</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="15">
+        <v>43081</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="15">
+        <v>43081</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="15">
+        <v>43081</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="15">
+        <v>43081</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="15">
+        <v>43081</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="15">
+        <v>43081</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="15">
+        <v>43081</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BangPhanChiaCongViecNhom.xlsx
+++ b/BangPhanChiaCongViecNhom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="46">
   <si>
     <t>Note</t>
   </si>
@@ -142,6 +142,21 @@
   </si>
   <si>
     <t>Thiết kế màn hình: Tra cứu</t>
+  </si>
+  <si>
+    <t>Code màn hình: Đăng nhập</t>
+  </si>
+  <si>
+    <t>Code màn hình:  Đăng xuất</t>
+  </si>
+  <si>
+    <t>Code màn hình: Thay đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Code: Quản lý bệnh nhân</t>
+  </si>
+  <si>
+    <t>Code: Quản lý nhân viên</t>
   </si>
 </sst>
 </file>
@@ -405,10 +420,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -693,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,11 +795,11 @@
       <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -808,11 +823,11 @@
       <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -836,11 +851,11 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -861,11 +876,11 @@
       <c r="F7" s="15">
         <v>43081</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -889,11 +904,11 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -914,11 +929,11 @@
       <c r="F9" s="15">
         <v>43081</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -939,11 +954,11 @@
       <c r="F10" s="15">
         <v>43081</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -964,11 +979,11 @@
       <c r="F11" s="15">
         <v>43081</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -989,11 +1004,11 @@
       <c r="F12" s="15">
         <v>43081</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1014,11 +1029,11 @@
       <c r="F13" s="15">
         <v>43081</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1039,11 +1054,11 @@
       <c r="F14" s="15">
         <v>43081</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1064,11 +1079,11 @@
       <c r="F15" s="15">
         <v>43081</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1089,11 +1104,11 @@
       <c r="F16" s="15">
         <v>43081</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -1277,13 +1292,190 @@
         <v>26</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H11:L11"/>
@@ -1292,6 +1484,11 @@
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
